--- a/Q3/orchardPark/Balance_Sheet_PeriodChange_40501_Accrual.xlsx
+++ b/Q3/orchardPark/Balance_Sheet_PeriodChange_40501_Accrual.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Orchard Park Apartments (40501)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Balance Sheet (With Period Change)</t>
   </si>
   <si>
-    <t>Period = Oct 2023</t>
+    <t>Period = Nov 2023</t>
   </si>
   <si>
     <t>Book = Accrual ; Tree = ysi_bs</t>
@@ -76,6 +76,12 @@
     <t xml:space="preserve">     Cash - Security Deposits</t>
   </si>
   <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Cash - Petty Cash</t>
+  </si>
+  <si>
     <t>10299</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
     <t xml:space="preserve">     A/R - Sec 8</t>
   </si>
   <si>
+    <t>12035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Subsidy Suspense Receivable</t>
+  </si>
+  <si>
     <t>12070</t>
   </si>
   <si>
@@ -178,6 +190,12 @@
     <t xml:space="preserve">     Prepaid Insurance</t>
   </si>
   <si>
+    <t>12220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Prepaid Property Tax</t>
+  </si>
+  <si>
     <t>12230</t>
   </si>
   <si>
@@ -250,6 +268,12 @@
     <t>OTHER ASSETS</t>
   </si>
   <si>
+    <t>14020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Deposits - Gas</t>
+  </si>
+  <si>
     <t>14260</t>
   </si>
   <si>
@@ -362,6 +386,12 @@
   </si>
   <si>
     <t xml:space="preserve">     Mortgage Payable 1st</t>
+  </si>
+  <si>
+    <t>20620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Notes Payable</t>
   </si>
   <si>
     <t>20650</t>
@@ -1000,7 +1030,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1135,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="15">
+        <v>230740.53</v>
+      </c>
+      <c r="D13" s="15">
         <v>182347.24</v>
       </c>
-      <c r="D13" s="15">
-        <v>257478.68</v>
-      </c>
       <c r="E13" s="15">
-        <v>-75131.44</v>
+        <v>48393.29</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1151,67 +1181,67 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>155465.75</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>155465.75</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
+        <v>800</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16">
+        <v>387006.28</v>
+      </c>
+      <c r="D16" s="16">
         <v>337812.99</v>
       </c>
-      <c r="D15" s="16">
-        <v>412944.43</v>
-      </c>
-      <c r="E15" s="16">
-        <v>-75131.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E16" s="16">
+        <v>49193.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15">
-        <v>3000000</v>
-      </c>
-      <c r="D18" s="15">
-        <v>3000000</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="13" t="s">
@@ -1221,13 +1251,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="15">
-        <v>2698663.2</v>
+        <v>2833040</v>
       </c>
       <c r="D19" s="15">
-        <v>3018781</v>
+        <v>3000000</v>
       </c>
       <c r="E19" s="15">
-        <v>-320117.8</v>
+        <v>-166960</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1238,10 +1268,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="15">
-        <v>176915</v>
+        <v>2698663.2</v>
       </c>
       <c r="D20" s="15">
-        <v>176915</v>
+        <v>2698663.2</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -1255,13 +1285,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="15">
-        <v>320117.8</v>
+        <v>20107.65</v>
       </c>
       <c r="D21" s="15">
-        <v>320117.8</v>
+        <v>176915</v>
       </c>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>-156807.35</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1272,10 +1302,10 @@
         <v>32</v>
       </c>
       <c r="C22" s="15">
-        <v>179136</v>
+        <v>320117.8</v>
       </c>
       <c r="D22" s="15">
-        <v>179136</v>
+        <v>320117.8</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
@@ -1289,10 +1319,10 @@
         <v>34</v>
       </c>
       <c r="C23" s="15">
-        <v>25563</v>
+        <v>179136</v>
       </c>
       <c r="D23" s="15">
-        <v>25563</v>
+        <v>179136</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -1305,67 +1335,67 @@
       <c r="B24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
+        <v>25563</v>
+      </c>
+      <c r="D24" s="15">
+        <v>25563</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="17">
         <v>825000</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>825000</v>
       </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="16">
+        <v>6901627.65</v>
+      </c>
+      <c r="D26" s="16">
         <v>7225395</v>
       </c>
-      <c r="D25" s="16">
-        <v>7545512.8</v>
-      </c>
-      <c r="E25" s="16">
-        <v>-320117.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E26" s="16">
+        <v>-323767.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="15">
-        <v>19273.34</v>
-      </c>
-      <c r="D28" s="15">
-        <v>15956.3</v>
-      </c>
-      <c r="E28" s="15">
-        <v>3317.04</v>
-      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
@@ -1375,13 +1405,13 @@
         <v>44</v>
       </c>
       <c r="C29" s="15">
-        <v>698.36</v>
+        <v>10639.93</v>
       </c>
       <c r="D29" s="15">
-        <v>971</v>
+        <v>19273.34</v>
       </c>
       <c r="E29" s="15">
-        <v>-272.64</v>
+        <v>-8633.41</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1391,187 +1421,187 @@
       <c r="B30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="15">
+        <v>-104.64</v>
+      </c>
+      <c r="D30" s="15">
+        <v>698.36</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="15">
+        <v>-751</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>-751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="17">
         <v>10346.49</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D32" s="17">
         <v>10346.49</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="16">
-        <v>30318.19</v>
-      </c>
-      <c r="D31" s="16">
-        <v>27273.79</v>
-      </c>
-      <c r="E31" s="16">
-        <v>3044.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C33" s="16">
+        <v>20130.78</v>
+      </c>
+      <c r="D33" s="16">
+        <v>30318.19</v>
+      </c>
+      <c r="E33" s="16">
+        <v>-10187.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="15">
+        <v>208894.86</v>
+      </c>
+      <c r="D36" s="15">
         <v>234008.36</v>
       </c>
-      <c r="D34" s="15">
-        <v>3442.17</v>
-      </c>
-      <c r="E34" s="15">
-        <v>230566.19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="E36" s="15">
+        <v>-25113.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="15">
+        <v>131717.39</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>131717.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1854.52</v>
+      </c>
+      <c r="D38" s="17">
         <v>2016.88</v>
       </c>
-      <c r="D35" s="17">
-        <v>3279.25</v>
-      </c>
-      <c r="E35" s="17">
-        <v>-1262.37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="18">
-        <v>236025.24</v>
-      </c>
-      <c r="D36" s="18">
-        <v>6721.42</v>
-      </c>
-      <c r="E36" s="18">
-        <v>229303.82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="16">
-        <v>7829551.42</v>
-      </c>
-      <c r="D37" s="16">
-        <v>7992452.44</v>
-      </c>
-      <c r="E37" s="16">
-        <v>-162901.02</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="17">
+        <v>-162.36</v>
+      </c>
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="C39" s="18">
+        <v>342466.77</v>
+      </c>
+      <c r="D39" s="18">
+        <v>236025.24</v>
+      </c>
+      <c r="E39" s="18">
+        <v>106441.53</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="15">
-        <v>2381640</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2381640</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="15">
-        <v>45708129.47</v>
-      </c>
-      <c r="D41" s="15">
-        <v>45708129.47</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
+      <c r="C40" s="16">
+        <v>7651231.48</v>
+      </c>
+      <c r="D40" s="16">
+        <v>7829551.42</v>
+      </c>
+      <c r="E40" s="16">
+        <v>-178319.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="15">
-        <v>2042.93</v>
-      </c>
-      <c r="D42" s="15">
-        <v>1968.14</v>
-      </c>
-      <c r="E42" s="15">
-        <v>74.79</v>
-      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="13" t="s">
@@ -1581,10 +1611,10 @@
         <v>68</v>
       </c>
       <c r="C43" s="15">
-        <v>20.37</v>
+        <v>2381640</v>
       </c>
       <c r="D43" s="15">
-        <v>20.37</v>
+        <v>2381640</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
@@ -1598,13 +1628,13 @@
         <v>70</v>
       </c>
       <c r="C44" s="15">
-        <v>225</v>
+        <v>45708129.47</v>
       </c>
       <c r="D44" s="15">
-        <v>0</v>
+        <v>45708129.47</v>
       </c>
       <c r="E44" s="15">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1614,84 +1644,90 @@
       <c r="B45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="15">
+        <v>0</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2042.93</v>
+      </c>
+      <c r="E45" s="15">
+        <v>-2042.93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="15">
+        <v>20.37</v>
+      </c>
+      <c r="E46" s="15">
+        <v>-20.37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15">
+        <v>225</v>
+      </c>
+      <c r="E47" s="15">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0</v>
+      </c>
+      <c r="D48" s="17">
         <v>140.03</v>
       </c>
-      <c r="D45" s="17">
-        <v>140.03</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="E48" s="17">
+        <v>-140.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="16">
+        <v>48089769.47</v>
+      </c>
+      <c r="D49" s="16">
         <v>48092197.8</v>
       </c>
-      <c r="D46" s="16">
-        <v>48091898.01</v>
-      </c>
-      <c r="E46" s="16">
-        <v>299.79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="15">
-        <v>890655</v>
-      </c>
-      <c r="D49" s="15">
-        <v>890655</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="17">
-        <v>538254.23</v>
-      </c>
-      <c r="D50" s="17">
-        <v>538254.23</v>
-      </c>
-      <c r="E50" s="17">
-        <v>0</v>
-      </c>
+      <c r="E49" s="16">
+        <v>-2428.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="10" t="s">
@@ -1700,68 +1736,94 @@
       <c r="B51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="15">
+        <v>400</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="15">
+        <v>890655</v>
+      </c>
+      <c r="D53" s="15">
+        <v>890655</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="17">
+        <v>538254.23</v>
+      </c>
+      <c r="D54" s="17">
+        <v>538254.23</v>
+      </c>
+      <c r="E54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="18">
+        <v>1429309.23</v>
+      </c>
+      <c r="D55" s="18">
         <v>1428909.23</v>
       </c>
-      <c r="D51" s="18">
-        <v>1428909.23</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="16">
-        <v>57350658.45</v>
-      </c>
-      <c r="D52" s="16">
-        <v>57513259.68</v>
-      </c>
-      <c r="E52" s="16">
-        <v>-162601.23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="18">
+        <v>400</v>
+      </c>
     </row>
     <row r="56" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="C56" s="16">
+        <v>57170310.18</v>
+      </c>
+      <c r="D56" s="16">
+        <v>57350658.45</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-180348.27</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="13"/>
@@ -1772,82 +1834,50 @@
     </row>
     <row r="58" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="15">
-        <v>101464.08</v>
-      </c>
-      <c r="D59" s="15">
-        <v>4307.62</v>
-      </c>
-      <c r="E59" s="15">
-        <v>97156.46</v>
-      </c>
+    <row r="59" spans="1:5" ht="15" customHeight="1">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="15">
-        <v>37363.17</v>
-      </c>
-      <c r="D60" s="15">
-        <v>27364.17</v>
-      </c>
-      <c r="E60" s="15">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="13" t="s">
+      <c r="A60" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B60" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="15">
-        <v>4061.37</v>
-      </c>
-      <c r="D61" s="15">
-        <v>525.02</v>
-      </c>
-      <c r="E61" s="15">
-        <v>3536.35</v>
-      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="15">
-        <v>150730.75</v>
-      </c>
-      <c r="D62" s="15">
-        <v>153910.75</v>
-      </c>
-      <c r="E62" s="15">
-        <v>-3180</v>
-      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="13" t="s">
@@ -1857,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="C63" s="15">
-        <v>4657.56</v>
+        <v>101215.01</v>
       </c>
       <c r="D63" s="15">
-        <v>4534.96</v>
+        <v>101464.08</v>
       </c>
       <c r="E63" s="15">
-        <v>122.6</v>
+        <v>-249.07</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1874,13 +1904,13 @@
         <v>102</v>
       </c>
       <c r="C64" s="15">
-        <v>349.5</v>
+        <v>24.96</v>
       </c>
       <c r="D64" s="15">
-        <v>374.5</v>
+        <v>37363.17</v>
       </c>
       <c r="E64" s="15">
-        <v>-25</v>
+        <v>-37338.21</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1891,13 +1921,13 @@
         <v>104</v>
       </c>
       <c r="C65" s="15">
-        <v>9262.29</v>
+        <v>0</v>
       </c>
       <c r="D65" s="15">
-        <v>9262.29</v>
+        <v>4061.37</v>
       </c>
       <c r="E65" s="15">
-        <v>0</v>
+        <v>-4061.37</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1908,13 +1938,13 @@
         <v>106</v>
       </c>
       <c r="C66" s="15">
-        <v>7597.38</v>
+        <v>149445.75</v>
       </c>
       <c r="D66" s="15">
-        <v>7597.38</v>
+        <v>150730.75</v>
       </c>
       <c r="E66" s="15">
-        <v>0</v>
+        <v>-1285</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1924,101 +1954,107 @@
       <c r="B67" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="17">
-        <v>0</v>
-      </c>
-      <c r="D67" s="17">
-        <v>17456.78</v>
-      </c>
-      <c r="E67" s="17">
-        <v>-17456.78</v>
+      <c r="C67" s="15">
+        <v>1641.73</v>
+      </c>
+      <c r="D67" s="15">
+        <v>4657.56</v>
+      </c>
+      <c r="E67" s="15">
+        <v>-3015.83</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="16">
-        <v>315486.1</v>
-      </c>
-      <c r="D68" s="16">
-        <v>225333.47</v>
-      </c>
-      <c r="E68" s="16">
-        <v>90152.63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="C68" s="15">
+        <v>574.5</v>
+      </c>
+      <c r="D68" s="15">
+        <v>349.5</v>
+      </c>
+      <c r="E68" s="15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="15">
+        <v>9262.29</v>
+      </c>
+      <c r="D69" s="15">
+        <v>9262.29</v>
+      </c>
+      <c r="E69" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="A70" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15">
+        <v>7597.38</v>
+      </c>
+      <c r="E70" s="15">
+        <v>-7597.38</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="15">
-        <v>21810000</v>
-      </c>
-      <c r="D71" s="15">
-        <v>21810000</v>
-      </c>
-      <c r="E71" s="15">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="C71" s="17">
+        <v>17658.94</v>
+      </c>
+      <c r="D71" s="17">
+        <v>0</v>
+      </c>
+      <c r="E71" s="17">
+        <v>17658.94</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="15">
-        <v>10440000</v>
-      </c>
-      <c r="D72" s="15">
-        <v>10440000</v>
-      </c>
-      <c r="E72" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="13" t="s">
+      <c r="A72" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B72" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="17">
-        <v>23000000</v>
-      </c>
-      <c r="D73" s="17">
-        <v>23000000</v>
-      </c>
-      <c r="E73" s="17">
-        <v>0</v>
-      </c>
+      <c r="C72" s="16">
+        <v>279823.18</v>
+      </c>
+      <c r="D72" s="16">
+        <v>315486.1</v>
+      </c>
+      <c r="E72" s="16">
+        <v>-35662.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1">
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="10" t="s">
@@ -2027,118 +2063,118 @@
       <c r="B74" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="18">
-        <v>55250000</v>
-      </c>
-      <c r="D74" s="18">
-        <v>55250000</v>
-      </c>
-      <c r="E74" s="18">
-        <v>0</v>
-      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="16">
-        <v>55565486.1</v>
-      </c>
-      <c r="D75" s="16">
-        <v>55475333.47</v>
-      </c>
-      <c r="E75" s="16">
-        <v>90152.63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="C75" s="15">
+        <v>21810000</v>
+      </c>
+      <c r="D75" s="15">
+        <v>21810000</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="15">
+        <v>2018</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0</v>
+      </c>
+      <c r="E76" s="15">
+        <v>2018</v>
+      </c>
     </row>
     <row r="77" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="A77" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="15">
+        <v>10440000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>10440000</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="15">
-        <v>2020500</v>
-      </c>
-      <c r="D78" s="15">
-        <v>2020500</v>
-      </c>
-      <c r="E78" s="15">
+        <v>128</v>
+      </c>
+      <c r="C78" s="17">
+        <v>23000000</v>
+      </c>
+      <c r="D78" s="17">
+        <v>23000000</v>
+      </c>
+      <c r="E78" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="15">
-        <v>-11973.81</v>
-      </c>
-      <c r="D79" s="15">
-        <v>-11973.81</v>
-      </c>
-      <c r="E79" s="15">
-        <v>0</v>
+      <c r="A79" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="18">
+        <v>55252018</v>
+      </c>
+      <c r="D79" s="18">
+        <v>55250000</v>
+      </c>
+      <c r="E79" s="18">
+        <v>2018</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="15">
-        <v>-800</v>
-      </c>
-      <c r="D80" s="15">
-        <v>-800</v>
-      </c>
-      <c r="E80" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A81" s="13" t="s">
+      <c r="A80" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B80" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="17">
-        <v>-222553.84</v>
-      </c>
-      <c r="D81" s="17">
-        <v>30200.02</v>
-      </c>
-      <c r="E81" s="17">
-        <v>-252753.86</v>
-      </c>
+      <c r="C80" s="16">
+        <v>55531841.18</v>
+      </c>
+      <c r="D80" s="16">
+        <v>55565486.1</v>
+      </c>
+      <c r="E80" s="16">
+        <v>-33644.92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="10" t="s">
@@ -2147,31 +2183,110 @@
       <c r="B82" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A83" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="15">
+        <v>2020500</v>
+      </c>
+      <c r="D83" s="15">
+        <v>2020500</v>
+      </c>
+      <c r="E83" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="15">
+        <v>-11973.81</v>
+      </c>
+      <c r="D84" s="15">
+        <v>-11973.81</v>
+      </c>
+      <c r="E84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A85" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="15">
+        <v>0</v>
+      </c>
+      <c r="D85" s="15">
+        <v>-800</v>
+      </c>
+      <c r="E85" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="17">
+        <v>-370057.19</v>
+      </c>
+      <c r="D86" s="17">
+        <v>-222553.84</v>
+      </c>
+      <c r="E86" s="17">
+        <v>-147503.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A87" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="18">
+        <v>1638469</v>
+      </c>
+      <c r="D87" s="18">
         <v>1785172.35</v>
       </c>
-      <c r="D82" s="18">
-        <v>2037926.21</v>
-      </c>
-      <c r="E82" s="18">
-        <v>-252753.86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A83" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="16">
+      <c r="E87" s="18">
+        <v>-146703.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A88" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="16">
+        <v>57170310.18</v>
+      </c>
+      <c r="D88" s="16">
         <v>57350658.45</v>
       </c>
-      <c r="D83" s="16">
-        <v>57513259.68</v>
-      </c>
-      <c r="E83" s="16">
-        <v>-162601.23</v>
+      <c r="E88" s="16">
+        <v>-180348.27</v>
       </c>
     </row>
   </sheetData>
@@ -2260,9 +2375,6 @@
     <ignoredError sqref="B15" numberStoredAsText="1"/>
     <ignoredError sqref="A16" numberStoredAsText="1"/>
     <ignoredError sqref="B16" numberStoredAsText="1"/>
-    <ignoredError sqref="C16" numberStoredAsText="1"/>
-    <ignoredError sqref="D16" numberStoredAsText="1"/>
-    <ignoredError sqref="E16" numberStoredAsText="1"/>
     <ignoredError sqref="A17" numberStoredAsText="1"/>
     <ignoredError sqref="B17" numberStoredAsText="1"/>
     <ignoredError sqref="C17" numberStoredAsText="1"/>
@@ -2270,6 +2382,9 @@
     <ignoredError sqref="E17" numberStoredAsText="1"/>
     <ignoredError sqref="A18" numberStoredAsText="1"/>
     <ignoredError sqref="B18" numberStoredAsText="1"/>
+    <ignoredError sqref="C18" numberStoredAsText="1"/>
+    <ignoredError sqref="D18" numberStoredAsText="1"/>
+    <ignoredError sqref="E18" numberStoredAsText="1"/>
     <ignoredError sqref="A19" numberStoredAsText="1"/>
     <ignoredError sqref="B19" numberStoredAsText="1"/>
     <ignoredError sqref="A20" numberStoredAsText="1"/>
@@ -2286,9 +2401,6 @@
     <ignoredError sqref="B25" numberStoredAsText="1"/>
     <ignoredError sqref="A26" numberStoredAsText="1"/>
     <ignoredError sqref="B26" numberStoredAsText="1"/>
-    <ignoredError sqref="C26" numberStoredAsText="1"/>
-    <ignoredError sqref="D26" numberStoredAsText="1"/>
-    <ignoredError sqref="E26" numberStoredAsText="1"/>
     <ignoredError sqref="A27" numberStoredAsText="1"/>
     <ignoredError sqref="B27" numberStoredAsText="1"/>
     <ignoredError sqref="C27" numberStoredAsText="1"/>
@@ -2296,6 +2408,9 @@
     <ignoredError sqref="E27" numberStoredAsText="1"/>
     <ignoredError sqref="A28" numberStoredAsText="1"/>
     <ignoredError sqref="B28" numberStoredAsText="1"/>
+    <ignoredError sqref="C28" numberStoredAsText="1"/>
+    <ignoredError sqref="D28" numberStoredAsText="1"/>
+    <ignoredError sqref="E28" numberStoredAsText="1"/>
     <ignoredError sqref="A29" numberStoredAsText="1"/>
     <ignoredError sqref="B29" numberStoredAsText="1"/>
     <ignoredError sqref="A30" numberStoredAsText="1"/>
@@ -2304,38 +2419,38 @@
     <ignoredError sqref="B31" numberStoredAsText="1"/>
     <ignoredError sqref="A32" numberStoredAsText="1"/>
     <ignoredError sqref="B32" numberStoredAsText="1"/>
-    <ignoredError sqref="C32" numberStoredAsText="1"/>
-    <ignoredError sqref="D32" numberStoredAsText="1"/>
-    <ignoredError sqref="E32" numberStoredAsText="1"/>
     <ignoredError sqref="A33" numberStoredAsText="1"/>
     <ignoredError sqref="B33" numberStoredAsText="1"/>
-    <ignoredError sqref="C33" numberStoredAsText="1"/>
-    <ignoredError sqref="D33" numberStoredAsText="1"/>
-    <ignoredError sqref="E33" numberStoredAsText="1"/>
     <ignoredError sqref="A34" numberStoredAsText="1"/>
     <ignoredError sqref="B34" numberStoredAsText="1"/>
+    <ignoredError sqref="C34" numberStoredAsText="1"/>
+    <ignoredError sqref="D34" numberStoredAsText="1"/>
+    <ignoredError sqref="E34" numberStoredAsText="1"/>
     <ignoredError sqref="A35" numberStoredAsText="1"/>
     <ignoredError sqref="B35" numberStoredAsText="1"/>
+    <ignoredError sqref="C35" numberStoredAsText="1"/>
+    <ignoredError sqref="D35" numberStoredAsText="1"/>
+    <ignoredError sqref="E35" numberStoredAsText="1"/>
     <ignoredError sqref="A36" numberStoredAsText="1"/>
     <ignoredError sqref="B36" numberStoredAsText="1"/>
     <ignoredError sqref="A37" numberStoredAsText="1"/>
     <ignoredError sqref="B37" numberStoredAsText="1"/>
     <ignoredError sqref="A38" numberStoredAsText="1"/>
     <ignoredError sqref="B38" numberStoredAsText="1"/>
-    <ignoredError sqref="C38" numberStoredAsText="1"/>
-    <ignoredError sqref="D38" numberStoredAsText="1"/>
-    <ignoredError sqref="E38" numberStoredAsText="1"/>
     <ignoredError sqref="A39" numberStoredAsText="1"/>
     <ignoredError sqref="B39" numberStoredAsText="1"/>
-    <ignoredError sqref="C39" numberStoredAsText="1"/>
-    <ignoredError sqref="D39" numberStoredAsText="1"/>
-    <ignoredError sqref="E39" numberStoredAsText="1"/>
     <ignoredError sqref="A40" numberStoredAsText="1"/>
     <ignoredError sqref="B40" numberStoredAsText="1"/>
     <ignoredError sqref="A41" numberStoredAsText="1"/>
     <ignoredError sqref="B41" numberStoredAsText="1"/>
+    <ignoredError sqref="C41" numberStoredAsText="1"/>
+    <ignoredError sqref="D41" numberStoredAsText="1"/>
+    <ignoredError sqref="E41" numberStoredAsText="1"/>
     <ignoredError sqref="A42" numberStoredAsText="1"/>
     <ignoredError sqref="B42" numberStoredAsText="1"/>
+    <ignoredError sqref="C42" numberStoredAsText="1"/>
+    <ignoredError sqref="D42" numberStoredAsText="1"/>
+    <ignoredError sqref="E42" numberStoredAsText="1"/>
     <ignoredError sqref="A43" numberStoredAsText="1"/>
     <ignoredError sqref="B43" numberStoredAsText="1"/>
     <ignoredError sqref="A44" numberStoredAsText="1"/>
@@ -2346,42 +2461,30 @@
     <ignoredError sqref="B46" numberStoredAsText="1"/>
     <ignoredError sqref="A47" numberStoredAsText="1"/>
     <ignoredError sqref="B47" numberStoredAsText="1"/>
-    <ignoredError sqref="C47" numberStoredAsText="1"/>
-    <ignoredError sqref="D47" numberStoredAsText="1"/>
-    <ignoredError sqref="E47" numberStoredAsText="1"/>
     <ignoredError sqref="A48" numberStoredAsText="1"/>
     <ignoredError sqref="B48" numberStoredAsText="1"/>
-    <ignoredError sqref="C48" numberStoredAsText="1"/>
-    <ignoredError sqref="D48" numberStoredAsText="1"/>
-    <ignoredError sqref="E48" numberStoredAsText="1"/>
     <ignoredError sqref="A49" numberStoredAsText="1"/>
     <ignoredError sqref="B49" numberStoredAsText="1"/>
     <ignoredError sqref="A50" numberStoredAsText="1"/>
     <ignoredError sqref="B50" numberStoredAsText="1"/>
+    <ignoredError sqref="C50" numberStoredAsText="1"/>
+    <ignoredError sqref="D50" numberStoredAsText="1"/>
+    <ignoredError sqref="E50" numberStoredAsText="1"/>
     <ignoredError sqref="A51" numberStoredAsText="1"/>
     <ignoredError sqref="B51" numberStoredAsText="1"/>
+    <ignoredError sqref="C51" numberStoredAsText="1"/>
+    <ignoredError sqref="D51" numberStoredAsText="1"/>
+    <ignoredError sqref="E51" numberStoredAsText="1"/>
     <ignoredError sqref="A52" numberStoredAsText="1"/>
     <ignoredError sqref="B52" numberStoredAsText="1"/>
     <ignoredError sqref="A53" numberStoredAsText="1"/>
     <ignoredError sqref="B53" numberStoredAsText="1"/>
-    <ignoredError sqref="C53" numberStoredAsText="1"/>
-    <ignoredError sqref="D53" numberStoredAsText="1"/>
-    <ignoredError sqref="E53" numberStoredAsText="1"/>
     <ignoredError sqref="A54" numberStoredAsText="1"/>
     <ignoredError sqref="B54" numberStoredAsText="1"/>
-    <ignoredError sqref="C54" numberStoredAsText="1"/>
-    <ignoredError sqref="D54" numberStoredAsText="1"/>
-    <ignoredError sqref="E54" numberStoredAsText="1"/>
     <ignoredError sqref="A55" numberStoredAsText="1"/>
     <ignoredError sqref="B55" numberStoredAsText="1"/>
-    <ignoredError sqref="C55" numberStoredAsText="1"/>
-    <ignoredError sqref="D55" numberStoredAsText="1"/>
-    <ignoredError sqref="E55" numberStoredAsText="1"/>
     <ignoredError sqref="A56" numberStoredAsText="1"/>
     <ignoredError sqref="B56" numberStoredAsText="1"/>
-    <ignoredError sqref="C56" numberStoredAsText="1"/>
-    <ignoredError sqref="D56" numberStoredAsText="1"/>
-    <ignoredError sqref="E56" numberStoredAsText="1"/>
     <ignoredError sqref="A57" numberStoredAsText="1"/>
     <ignoredError sqref="B57" numberStoredAsText="1"/>
     <ignoredError sqref="C57" numberStoredAsText="1"/>
@@ -2394,12 +2497,24 @@
     <ignoredError sqref="E58" numberStoredAsText="1"/>
     <ignoredError sqref="A59" numberStoredAsText="1"/>
     <ignoredError sqref="B59" numberStoredAsText="1"/>
+    <ignoredError sqref="C59" numberStoredAsText="1"/>
+    <ignoredError sqref="D59" numberStoredAsText="1"/>
+    <ignoredError sqref="E59" numberStoredAsText="1"/>
     <ignoredError sqref="A60" numberStoredAsText="1"/>
     <ignoredError sqref="B60" numberStoredAsText="1"/>
+    <ignoredError sqref="C60" numberStoredAsText="1"/>
+    <ignoredError sqref="D60" numberStoredAsText="1"/>
+    <ignoredError sqref="E60" numberStoredAsText="1"/>
     <ignoredError sqref="A61" numberStoredAsText="1"/>
     <ignoredError sqref="B61" numberStoredAsText="1"/>
+    <ignoredError sqref="C61" numberStoredAsText="1"/>
+    <ignoredError sqref="D61" numberStoredAsText="1"/>
+    <ignoredError sqref="E61" numberStoredAsText="1"/>
     <ignoredError sqref="A62" numberStoredAsText="1"/>
     <ignoredError sqref="B62" numberStoredAsText="1"/>
+    <ignoredError sqref="C62" numberStoredAsText="1"/>
+    <ignoredError sqref="D62" numberStoredAsText="1"/>
+    <ignoredError sqref="E62" numberStoredAsText="1"/>
     <ignoredError sqref="A63" numberStoredAsText="1"/>
     <ignoredError sqref="B63" numberStoredAsText="1"/>
     <ignoredError sqref="A64" numberStoredAsText="1"/>
@@ -2414,34 +2529,28 @@
     <ignoredError sqref="B68" numberStoredAsText="1"/>
     <ignoredError sqref="A69" numberStoredAsText="1"/>
     <ignoredError sqref="B69" numberStoredAsText="1"/>
-    <ignoredError sqref="C69" numberStoredAsText="1"/>
-    <ignoredError sqref="D69" numberStoredAsText="1"/>
-    <ignoredError sqref="E69" numberStoredAsText="1"/>
     <ignoredError sqref="A70" numberStoredAsText="1"/>
     <ignoredError sqref="B70" numberStoredAsText="1"/>
-    <ignoredError sqref="C70" numberStoredAsText="1"/>
-    <ignoredError sqref="D70" numberStoredAsText="1"/>
-    <ignoredError sqref="E70" numberStoredAsText="1"/>
     <ignoredError sqref="A71" numberStoredAsText="1"/>
     <ignoredError sqref="B71" numberStoredAsText="1"/>
     <ignoredError sqref="A72" numberStoredAsText="1"/>
     <ignoredError sqref="B72" numberStoredAsText="1"/>
     <ignoredError sqref="A73" numberStoredAsText="1"/>
     <ignoredError sqref="B73" numberStoredAsText="1"/>
+    <ignoredError sqref="C73" numberStoredAsText="1"/>
+    <ignoredError sqref="D73" numberStoredAsText="1"/>
+    <ignoredError sqref="E73" numberStoredAsText="1"/>
     <ignoredError sqref="A74" numberStoredAsText="1"/>
     <ignoredError sqref="B74" numberStoredAsText="1"/>
+    <ignoredError sqref="C74" numberStoredAsText="1"/>
+    <ignoredError sqref="D74" numberStoredAsText="1"/>
+    <ignoredError sqref="E74" numberStoredAsText="1"/>
     <ignoredError sqref="A75" numberStoredAsText="1"/>
     <ignoredError sqref="B75" numberStoredAsText="1"/>
     <ignoredError sqref="A76" numberStoredAsText="1"/>
     <ignoredError sqref="B76" numberStoredAsText="1"/>
-    <ignoredError sqref="C76" numberStoredAsText="1"/>
-    <ignoredError sqref="D76" numberStoredAsText="1"/>
-    <ignoredError sqref="E76" numberStoredAsText="1"/>
     <ignoredError sqref="A77" numberStoredAsText="1"/>
     <ignoredError sqref="B77" numberStoredAsText="1"/>
-    <ignoredError sqref="C77" numberStoredAsText="1"/>
-    <ignoredError sqref="D77" numberStoredAsText="1"/>
-    <ignoredError sqref="E77" numberStoredAsText="1"/>
     <ignoredError sqref="A78" numberStoredAsText="1"/>
     <ignoredError sqref="B78" numberStoredAsText="1"/>
     <ignoredError sqref="A79" numberStoredAsText="1"/>
@@ -2450,10 +2559,26 @@
     <ignoredError sqref="B80" numberStoredAsText="1"/>
     <ignoredError sqref="A81" numberStoredAsText="1"/>
     <ignoredError sqref="B81" numberStoredAsText="1"/>
+    <ignoredError sqref="C81" numberStoredAsText="1"/>
+    <ignoredError sqref="D81" numberStoredAsText="1"/>
+    <ignoredError sqref="E81" numberStoredAsText="1"/>
     <ignoredError sqref="A82" numberStoredAsText="1"/>
     <ignoredError sqref="B82" numberStoredAsText="1"/>
+    <ignoredError sqref="C82" numberStoredAsText="1"/>
+    <ignoredError sqref="D82" numberStoredAsText="1"/>
+    <ignoredError sqref="E82" numberStoredAsText="1"/>
     <ignoredError sqref="A83" numberStoredAsText="1"/>
     <ignoredError sqref="B83" numberStoredAsText="1"/>
+    <ignoredError sqref="A84" numberStoredAsText="1"/>
+    <ignoredError sqref="B84" numberStoredAsText="1"/>
+    <ignoredError sqref="A85" numberStoredAsText="1"/>
+    <ignoredError sqref="B85" numberStoredAsText="1"/>
+    <ignoredError sqref="A86" numberStoredAsText="1"/>
+    <ignoredError sqref="B86" numberStoredAsText="1"/>
+    <ignoredError sqref="A87" numberStoredAsText="1"/>
+    <ignoredError sqref="B87" numberStoredAsText="1"/>
+    <ignoredError sqref="A88" numberStoredAsText="1"/>
+    <ignoredError sqref="B88" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>